--- a/data/income_statement/1digit/size/G_IS_MEDIUM.xlsx
+++ b/data/income_statement/1digit/size/G_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>G-Wholesale and retail trade; repair of motor vehicles and motorcycles</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,2078 +841,2346 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>152761294.2596</v>
+        <v>151915124.57655</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>192479505.44592</v>
+        <v>192309385.12154</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>249656282.36414</v>
+        <v>249113676.49196</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>288396894.26873</v>
+        <v>289450137.47012</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>323582151.8675501</v>
+        <v>324873098.58563</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>375886937.12868</v>
+        <v>377765193.6284</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>427880943.31699</v>
+        <v>439151635.94971</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>474896679.71824</v>
+        <v>481723789.2806399</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>595799069.3860402</v>
+        <v>595569642.2250601</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>693759132.3302299</v>
+        <v>691634395.6103501</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>783920635.6173301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>779410724.28957</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1036567724.837</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>131905740.78137</v>
+        <v>131048170.80972</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>167613038.4090101</v>
+        <v>167326193.29462</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>218488956.91889</v>
+        <v>217917464.27633</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>248123359.34516</v>
+        <v>247974112.67364</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>279937673.97388</v>
+        <v>280631820.55928</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>322446259.75744</v>
+        <v>323649000.65855</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>368262415.73075</v>
+        <v>378193485.16647</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>408708829.27405</v>
+        <v>414246814.8259999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>502026564.59328</v>
+        <v>501526772.16651</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>573028674.18088</v>
+        <v>570219099.20865</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>638305468.7122701</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>633416250.37271</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>871390749.196</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>17715022.95856</v>
+        <v>17743923.12706</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>20988223.04088</v>
+        <v>21133861.82987</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>26557917.85472001</v>
+        <v>26628102.95526</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>34872995.11253</v>
+        <v>36065442.30962</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>37342108.46869</v>
+        <v>37953483.51638999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>46301196.64022</v>
+        <v>46952247.0829</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>51058885.10714001</v>
+        <v>52243205.45672999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>56701135.17954001</v>
+        <v>57950177.58672</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>83238857.54815999</v>
+        <v>83570984.91272999</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>106276833.32033</v>
+        <v>107123532.66003</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>129553813.6557</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>130058917.7964</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>146846889.494</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>3140530.519669999</v>
+        <v>3123030.63977</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>3878243.99603</v>
+        <v>3849329.99705</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>4609407.590530001</v>
+        <v>4568109.26037</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>5400539.811039999</v>
+        <v>5410582.48686</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>6302369.424980001</v>
+        <v>6287794.50996</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>7139480.73102</v>
+        <v>7163945.886949999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>8559642.4791</v>
+        <v>8714945.326510001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>9486715.264650002</v>
+        <v>9526796.86792</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>10533647.2446</v>
+        <v>10471885.14582</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>14453624.82902</v>
+        <v>14291763.74167</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>16061353.24936</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>15935556.12046</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>18330086.147</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>4443265.48586</v>
+        <v>4488046.8722</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>5047212.38516</v>
+        <v>5150560.433929999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>5907983.249340001</v>
+        <v>5978465.71978</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6522229.99562</v>
+        <v>6647264.768740002</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>7988100.55989</v>
+        <v>8148851.909450002</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>10687407.05113</v>
+        <v>10298322.98719</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>10808380.67444</v>
+        <v>11228625.98982</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14484184.9879</v>
+        <v>16050390.07395</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>19620568.91236</v>
+        <v>20091583.70761</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>23745061.65912</v>
+        <v>24169905.21861999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>39983760.43905</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25005305.29715</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>25975079.688</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1767032.9114</v>
+        <v>1762187.34532</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1904576.4864</v>
+        <v>1918104.55583</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>2363280.863110001</v>
+        <v>2358709.17582</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>2732071.9172</v>
+        <v>2778482.575820001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3060582.87099</v>
+        <v>3111121.49888</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>5354485.48557</v>
+        <v>4770167.756740001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4903454.3328</v>
+        <v>5035174.49589</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>8446271.575299999</v>
+        <v>9572704.652379999</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>12837493.97406</v>
+        <v>13082151.04746</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>10960629.60035</v>
+        <v>11227773.32449</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>25578445.03678</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>10309415.99438</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>11865127.834</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>2315827.39057</v>
+        <v>2348831.83234</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>2647350.57873</v>
+        <v>2713823.01988</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2991201.01185</v>
+        <v>3062087.845489999</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3127092.311879999</v>
+        <v>3219652.846789999</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>4160070.41045</v>
+        <v>4265935.984560001</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>4320546.60069</v>
+        <v>4491885.36619</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>4672971.065429999</v>
+        <v>4921755.97522</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4721238.79703</v>
+        <v>5097003.985189999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>5088423.57098</v>
+        <v>5292125.93784</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10050328.97808</v>
+        <v>10182277.04401</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>11758107.21864</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>11974067.31377</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>10559600.288</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>360405.18389</v>
+        <v>377027.69454</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>495285.3200299999</v>
+        <v>518632.85822</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>553501.3743799998</v>
+        <v>557668.6984700001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>663065.76654</v>
+        <v>649129.3461299998</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>767447.27845</v>
+        <v>771794.4260099998</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1012374.96487</v>
+        <v>1036269.86426</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1231955.27621</v>
+        <v>1271695.51871</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1316674.61557</v>
+        <v>1380681.43638</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1694651.36732</v>
+        <v>1717306.72231</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2734103.08069</v>
+        <v>2759854.85012</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2647208.18363</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2721821.989</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>3550351.566</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>148318028.77374</v>
+        <v>147427077.70435</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>187432293.06076</v>
+        <v>187158824.68761</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>243748299.1147999</v>
+        <v>243135210.77218</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>281874664.27311</v>
+        <v>282802872.70138</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>315594051.30766</v>
+        <v>316724246.6761801</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>365199530.07755</v>
+        <v>367466870.64121</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>417072562.64255</v>
+        <v>427923009.9598901</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>460412494.7303399</v>
+        <v>465673399.20669</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>576178500.47368</v>
+        <v>575478058.51745</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>670014070.67111</v>
+        <v>667464490.39173</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>743936875.1782801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>754405418.99242</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1010592645.149</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>131485820.69918</v>
+        <v>130781028.31405</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>167781964.41382</v>
+        <v>167537135.68253</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>218762995.4593</v>
+        <v>218189376.85314</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>253794034.70761</v>
+        <v>254746389.86234</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>283115231.34979</v>
+        <v>284137605.89068</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>327486570.17864</v>
+        <v>329509389.67691</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>373812140.51002</v>
+        <v>384220249.3833799</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>413422028.32355</v>
+        <v>417751286.24711</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>517482487.2596</v>
+        <v>516947698.43739</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>597983470.7995501</v>
+        <v>596316200.16786</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>664723764.24909</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>676247150.39999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>917430436.279</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>5710040.82592</v>
+        <v>5571331.62894</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>6853771.54779</v>
+        <v>6885699.162959999</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>10314055.53738</v>
+        <v>10143674.29058</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>14891605.8519</v>
+        <v>14838188.7269</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13756783.83825</v>
+        <v>13798999.76364</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13829111.07756</v>
+        <v>13814328.81378</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>17013273.65598</v>
+        <v>17122859.55868</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>22299693.85507</v>
+        <v>22622987.82902</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>38629209.64667</v>
+        <v>38434649.911</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>30982440.29216</v>
+        <v>30416027.38158</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>38825146.63099</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>38451835.95618</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>51195768.984</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>122872273.0432</v>
+        <v>122362300.68055</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>157352258.59691</v>
+        <v>157151561.1675</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>203946855.67587</v>
+        <v>203639497.65198</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>233916102.00979</v>
+        <v>233828945.69946</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>262969656.90993</v>
+        <v>263920927.47729</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>306699157.09048</v>
+        <v>308577824.10279</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>349172892.9855801</v>
+        <v>359214845.96305</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>382892313.35053</v>
+        <v>386343404.09883</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>465709297.4265699</v>
+        <v>465213594.5849799</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>552284041.4880301</v>
+        <v>551157152.2984101</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>608797698.0140901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>620712428.02367</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>827045473.1109999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>2506827.02199</v>
+        <v>2432208.15982</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3105276.16326</v>
+        <v>3023754.62412</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3859349.78804</v>
+        <v>3772488.68293</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4388209.98761</v>
+        <v>5458523.89445</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5338039.93249</v>
+        <v>5351912.206430001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>5961940.98196</v>
+        <v>6104562.10121</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>6515051.66324</v>
+        <v>6690699.45603</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>7404440.728130001</v>
+        <v>7518161.889799999</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>11534932.35659</v>
+        <v>11674123.28342</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>12869088.51617</v>
+        <v>12768817.87127</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>14865789.10064</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>14787348.42609</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>36498424.301</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>396679.80807</v>
+        <v>415187.84474</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>470658.1058600001</v>
+        <v>476120.72795</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>642734.4580099999</v>
+        <v>633716.22765</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>598116.85831</v>
+        <v>620731.5415299999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>1050750.66912</v>
+        <v>1065766.44332</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>996361.02864</v>
+        <v>1012674.65913</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1110922.20522</v>
+        <v>1191844.40562</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>825580.3898199999</v>
+        <v>1266732.42946</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>1609047.82977</v>
+        <v>1625330.65799</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1847900.50319</v>
+        <v>1974202.6166</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2235130.50337</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2295537.99405</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2690769.883</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>16832208.07456</v>
+        <v>16646049.3903</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>19650328.64694</v>
+        <v>19621689.00508</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>24985303.6555</v>
+        <v>24945833.91904</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>28080629.56550001</v>
+        <v>28056482.83904</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>32478819.95787</v>
+        <v>32586640.7855</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>37712959.89890999</v>
+        <v>37957480.96429999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>43260422.13253</v>
+        <v>43702760.57651</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>46990466.40679001</v>
+        <v>47922112.95958001</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>58696013.21407999</v>
+        <v>58530360.08006</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>72030599.87155999</v>
+        <v>71148290.22387001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>79213110.92919001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>78158268.59243</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>93162208.87</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>12485407.45809</v>
+        <v>12220099.96661</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>14528465.0684</v>
+        <v>14375689.40136</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>17892459.00032</v>
+        <v>17654935.15385</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>21001207.29892</v>
+        <v>20791826.88533</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>23729332.37611</v>
+        <v>23681751.52215</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>27385403.02732</v>
+        <v>27293415.96229</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>30688526.52308</v>
+        <v>30812762.2628</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>34236449.57414</v>
+        <v>34496392.17928</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>40514964.56189</v>
+        <v>39756688.82613</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>46677783.93212</v>
+        <v>45994964.78886999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>54296727.46022</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>53196731.31266</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>58582382.332</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>33514.90685</v>
+        <v>35850.70736</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>32832.24707</v>
+        <v>36510.70012</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>57726.79778</v>
+        <v>53695.15315</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>43977.98057</v>
+        <v>46247.61269</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>61078.57197</v>
+        <v>64127.01973000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>69577.55574</v>
+        <v>76870.06663000002</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>55000.80445</v>
+        <v>59550.09242</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>46013.72943</v>
+        <v>45540.13235</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>73360.65337999999</v>
+        <v>75316.57456000001</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>155127.32161</v>
+        <v>133212.80249</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>196797.68158</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>168246.76868</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>222300.985</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>6426397.096270001</v>
+        <v>6430690.39236</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>7486604.21312</v>
+        <v>7564496.901740001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>9077481.860590002</v>
+        <v>9142830.24557</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>10529727.30883</v>
+        <v>10667282.34285</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>12631233.17277</v>
+        <v>12879545.61975</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>14407877.14419</v>
+        <v>14590981.45316</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>15803410.44405</v>
+        <v>16162586.9071</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>17404375.29504</v>
+        <v>18012624.12374</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>20569473.61028</v>
+        <v>20652931.90931</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>27413885.06767</v>
+        <v>27402056.29004</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>31630756.85417001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>31444544.34973</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>34135093.249</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>6025495.454969998</v>
+        <v>5753558.86689</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>7009028.60821</v>
+        <v>6774681.7995</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>8757250.341949999</v>
+        <v>8458409.75513</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>10427502.00952</v>
+        <v>10078296.92979</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>11037020.63137</v>
+        <v>10738078.88267</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>12907948.32739</v>
+        <v>12625564.4425</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>14830115.27458</v>
+        <v>14590625.26328</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>16786060.54967</v>
+        <v>16438227.92319</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>19872130.29823</v>
+        <v>19028440.34226001</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>19108771.54284</v>
+        <v>18459695.69633999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>22469172.92447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>21583940.19425</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>24224988.098</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4346800.616470001</v>
+        <v>4425949.42369</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>5121863.57854</v>
+        <v>5245999.60372</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>7092844.655180001</v>
+        <v>7290898.765189999</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>7079422.26658</v>
+        <v>7264655.953710001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>8749487.581760002</v>
+        <v>8904889.263350002</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>10327556.87159</v>
+        <v>10664065.00201</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>12571895.60945</v>
+        <v>12889998.31371</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>12754016.83265</v>
+        <v>13425720.7803</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>18181048.65219</v>
+        <v>18773671.25393</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>25352815.93944</v>
+        <v>25153325.435</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>24916383.46897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24961537.27977</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>34579826.538</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>3370447.70734</v>
+        <v>3374467.541459999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2944080.28279</v>
+        <v>2939361.11575</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>3982219.48118</v>
+        <v>3964912.402429999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3308214.71566</v>
+        <v>3418685.32859</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5081090.042009999</v>
+        <v>5775707.23944</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5998791.11578</v>
+        <v>6530868.453670001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>9304606.22776</v>
+        <v>9944085.808939999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>8242945.02332</v>
+        <v>8875310.252560001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>9718762.15288</v>
+        <v>10846451.57119</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>36304178.30126999</v>
+        <v>37453215.2788</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>20183947.32032999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>21828114.2002</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>33142443.189</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>71117.35258999999</v>
+        <v>42327.25201</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>82448.40591999999</v>
+        <v>43003.61302999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>85345.97332</v>
+        <v>41403.93238</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>84767.65327999998</v>
+        <v>45730.81036</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>118514.07006</v>
+        <v>96621.7441</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>103789.5514</v>
+        <v>87261.6842</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>105980.18292</v>
+        <v>51928.98095</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>144454.00594</v>
+        <v>153398.07096</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>141168.28175</v>
+        <v>265113.80031</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>493343.02312</v>
+        <v>140782.8805</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>313109.50181</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>316237.5838900001</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>125018.637</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>23987.76419</v>
+        <v>19232.8527</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>17201.96952</v>
+        <v>10569.94693</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>30909.77244</v>
+        <v>14540.85318</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>32289.0755</v>
+        <v>39462.9852</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>36435.74464</v>
+        <v>88999.29599000001</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>32118.78606</v>
+        <v>21565.94627</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>33843.41191</v>
+        <v>125250.3784</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>75031.11441999998</v>
+        <v>51145.22232000001</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>64351.47213</v>
+        <v>64850.29594999999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>259126.98415</v>
+        <v>90337.20064</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>270290.11794</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>77893.53052</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>110777.607</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>260365.9279</v>
+        <v>260633.36425</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>227600.63925</v>
+        <v>228364.45581</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>280358.6279799999</v>
+        <v>280184.9270600001</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>335744.92691</v>
+        <v>338139.93422</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>370630.05354</v>
+        <v>402737.84167</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>477430.10943</v>
+        <v>516720.60251</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>560448.9900400001</v>
+        <v>676554.05134</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>587135.22081</v>
+        <v>597689.85974</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>815925.83421</v>
+        <v>844441.4553000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1664166.56868</v>
+        <v>1607771.44006</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2193997.37148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2117811.0017</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>1836455.033</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>82398.39064</v>
+        <v>82054.83068</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>83601.69574</v>
+        <v>80002.75539000002</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>91925.36165000001</v>
+        <v>86062.88910000001</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>90104.64425</v>
+        <v>85014.25334</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>136539.86985</v>
+        <v>139891.36839</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>146169.14856</v>
+        <v>149302.38659</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>140532.17117</v>
+        <v>141557.27862</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>136566.1805</v>
+        <v>133574.64755</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>142779.15049</v>
+        <v>137278.12273</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>306486.17198</v>
+        <v>286979.40701</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>232356.80228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>229341.40339</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>292725.95</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>78500.62889000002</v>
+        <v>79816.21992999999</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>85834.19443999999</v>
+        <v>80578.64116000001</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>95583.02531999999</v>
+        <v>92711.53622000001</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>77937.11533000002</v>
+        <v>110416.72868</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>116564.28884</v>
+        <v>149205.09951</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>119967.51977</v>
+        <v>149926.44186</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>117081.74418</v>
+        <v>148789.25002</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>137113.06432</v>
+        <v>186026.96976</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>178946.5369900001</v>
+        <v>170093.0745099999</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>415977.1452599999</v>
+        <v>258460.23639</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>416594.63789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>296437.98149</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>329103.829</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>35759.11509</v>
+        <v>29873.08395</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>18215.52349</v>
+        <v>30146.92616</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>66510.22391</v>
+        <v>60876.48033000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>34011.23832</v>
+        <v>58496.24614000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>45349.97809</v>
+        <v>89631.04734</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>58730.94747000001</v>
+        <v>45891.52902999998</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>96402.32646</v>
+        <v>64249.40345</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>163969.47422</v>
+        <v>51154.25078999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>65052.33398</v>
+        <v>49817.71737</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>175071.39216</v>
+        <v>241284.2978</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>255696.66761</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>268968.83318</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>250334.268</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2203695.0298</v>
+        <v>2257437.980280001</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1733249.23757</v>
+        <v>1782647.27065</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2540036.83923</v>
+        <v>2614940.97807</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1756903.112290001</v>
+        <v>1824013.93719</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3182686.76216</v>
+        <v>3576980.31134</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>3812717.2275</v>
+        <v>4099893.510350001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>6650272.190020001</v>
+        <v>6999297.01141</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5279502.781239999</v>
+        <v>5833639.90496</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>6359021.522450001</v>
+        <v>7453079.805710001</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>30042581.04614001</v>
+        <v>31565782.98741</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>13395030.39784</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>15520804.433</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>26985824.354</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>18290.96523000001</v>
+        <v>16407.66935</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>11047.84399</v>
+        <v>16250.42821</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>8255.449140000001</v>
+        <v>13140.52456</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>9993.33102</v>
+        <v>14780.4611</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>51727.88157</v>
+        <v>72937.81528</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>77580.31267</v>
+        <v>90424.79236000002</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>81201.78816</v>
+        <v>110747.52697</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>86823.15814999999</v>
+        <v>131496.01754</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>74380.84268</v>
+        <v>108962.84107</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>391071.54534</v>
+        <v>433573.19069</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>359794.98658</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>377459.89969</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>260179.431</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>16578.2316</v>
+        <v>15091.39713</v>
       </c>
       <c r="D34" s="48" t="n">
-        <v>8115.00142</v>
+        <v>7250.506109999999</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>14769.79916</v>
+        <v>13904.38335</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>10073.41435</v>
+        <v>10901.95656</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>12314.07391</v>
+        <v>12357.50994</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>14470.04998</v>
+        <v>14665.82565</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>22557.29905</v>
+        <v>19652.72088</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>27105.22828</v>
+        <v>22590.31346</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>53987.21513</v>
+        <v>54156.06291000001</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>73413.23555000001</v>
+        <v>56762.11643</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>42124.962</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>33420.05287</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>117966.41</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>579754.3014100001</v>
+        <v>571592.8911799999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>676765.77145</v>
+        <v>660546.5723</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>768524.4090299999</v>
+        <v>747145.8981799998</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>876390.20441</v>
+        <v>891728.0157999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1010327.31935</v>
+        <v>1146345.20588</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1155817.46294</v>
+        <v>1355215.73485</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1496286.12385</v>
+        <v>1606059.2069</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>1605244.79544</v>
+        <v>1714594.99548</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>1823148.963070001</v>
+        <v>1698658.39533</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2482941.188890001</v>
+        <v>2771481.52187</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2704951.8749</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>2589739.48047</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2834057.67</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3053422.80478</v>
+        <v>3010957.52294</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2258355.68743</v>
+        <v>2351833.017870001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3770107.78568</v>
+        <v>3834481.09976</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2440136.19594</v>
+        <v>2562263.958060001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5244668.71347</v>
+        <v>5704633.934419999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>5205906.585899998</v>
+        <v>5744724.38595</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>9049474.866290001</v>
+        <v>9715509.76213</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7761982.4618</v>
+        <v>8532512.28648</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8716711.09183</v>
+        <v>10011931.41502</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>36848971.13267</v>
+        <v>38476524.18231</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>17046053.60752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>18814021.18001001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>29926001.379</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>99898.34234999999</v>
+        <v>103384.31026</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>101991.38517</v>
+        <v>110511.24333</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>122165.09507</v>
+        <v>121899.07751</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>125304.20778</v>
+        <v>128143.53004</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>151428.87979</v>
+        <v>148426.00221</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>159102.27075</v>
+        <v>157654.497</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>198256.97282</v>
+        <v>204844.84298</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>210653.54721</v>
+        <v>217636.0579899999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>323125.17542</v>
+        <v>323252.88122</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>303889.3974199999</v>
+        <v>300058.44718</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>366393.16867</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>348262.0603</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>449198.701</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>502166.48332</v>
+        <v>421321.6838699999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>270164.25877</v>
+        <v>280451.29737</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>330828.77636</v>
+        <v>322779.3220700001</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>405482.7921</v>
+        <v>441494.30608</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>531055.03817</v>
+        <v>557108.09311</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>507389.24909</v>
+        <v>475536.71879</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>740995.43542</v>
+        <v>791917.82602</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>833689.04577</v>
+        <v>970855.2292899999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>735798.29824</v>
+        <v>759147.0796999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1461651.50993</v>
+        <v>1362842.29045</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1308117.06636</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1211939.27</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>929902.779</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>18489.11728</v>
+        <v>11459.50693</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>8238.96027</v>
+        <v>7295.28641</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>29092.78647</v>
+        <v>32547.64323000001</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>13597.31462</v>
+        <v>16435.98293</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>33197.56294</v>
+        <v>35784.71338</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>27837.82125</v>
+        <v>29030.80094</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>46534.95340999999</v>
+        <v>32285.63934000001</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>178388.49595</v>
+        <v>32676.72797</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>39531.1575</v>
+        <v>32562.13441</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>50036.03088</v>
+        <v>48017.67657</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>47342.31572999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>52724.9165</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>107183.877</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2200819.6633</v>
+        <v>2256269.19336</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1679892.16859</v>
+        <v>1733113.75057</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3031431.741530001</v>
+        <v>3078611.07694</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1607004.97106</v>
+        <v>1677264.41556</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4109927.65217</v>
+        <v>4452364.461540001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>4013105.93948</v>
+        <v>4455966.93322</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>7416017.46081</v>
+        <v>8007159.836910001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>5964097.80094</v>
+        <v>6659487.94514</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>6972272.318419999</v>
+        <v>8235405.77676</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>33617886.0134</v>
+        <v>35337200.31709</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>14056597.90367</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>15837135.53708</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>24310313.029</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>15657.0984</v>
+        <v>15554.58456</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>11360.92487</v>
+        <v>12282.59697</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>10856.0119</v>
+        <v>16323.58054</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>9945.500030000001</v>
+        <v>14961.52146</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>72147.00494</v>
+        <v>92509.31556999999</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>88579.57304999999</v>
+        <v>104125.04131</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>96162.6021</v>
+        <v>123130.81572</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>94376.60158</v>
+        <v>145144.88263</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>85928.65565999997</v>
+        <v>110706.05275</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>458514.77594</v>
+        <v>497055.94986</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>360758.7172899999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>372483.69605</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>309020.16</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>5309.33916</v>
+        <v>4473.43078</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>7968.31541</v>
+        <v>8192.254369999999</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>16351.6455</v>
+        <v>13752.50261</v>
       </c>
       <c r="F42" s="48" t="n">
-        <v>7893.96087</v>
+        <v>6855.686809999999</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>9734.86455</v>
+        <v>10386.53367</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>11421.21605</v>
+        <v>10847.1245</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>17225.96274</v>
+        <v>17208.48305</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>21085.09389</v>
+        <v>18180.48448</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>39725.17192</v>
+        <v>43190.24765999999</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>90281.32004999998</v>
+        <v>69737.54751999999</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>47281.49636</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>44114.88727000001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>120877.569</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>211082.76097</v>
+        <v>198494.81318</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>178739.67435</v>
+        <v>199986.58885</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>229381.72885</v>
+        <v>248567.8968599999</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>270907.44948</v>
+        <v>277108.5151799999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>337177.71091</v>
+        <v>408054.81494</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>398470.51623</v>
+        <v>511563.27019</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>534281.4789899999</v>
+        <v>538962.31811</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>459691.8764599999</v>
+        <v>488530.9589799999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>520330.3146700001</v>
+        <v>507667.24252</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>866712.0850500002</v>
+        <v>861611.9536400001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>859562.93944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>947360.8128100001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3699505.264</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>2245891.35649</v>
+        <v>2206222.16221</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1892014.54156</v>
+        <v>1905423.17986</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2732649.39104</v>
+        <v>2766735.82677</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3542113.98401</v>
+        <v>3551020.14943</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4018051.66564</v>
+        <v>4052853.546759999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>4976746.057560001</v>
+        <v>5233671.97065</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6132184.75108</v>
+        <v>6425703.137680001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6927009.18338</v>
+        <v>7158919.62246</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>8597422.499339998</v>
+        <v>8758220.598759998</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>14635459.75055</v>
+        <v>14164955.04654</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>13970602.94547</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>13596477.43041</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>11505809.964</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>2144849.59712</v>
+        <v>2109031.72421</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1776768.14104</v>
+        <v>1772716.40172</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2583669.07405</v>
+        <v>2582492.41163</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3399765.65678</v>
+        <v>3417093.05432</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3823000.361739999</v>
+        <v>3850685.826110001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4779387.161250001</v>
+        <v>5016518.77071</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5807607.67815</v>
+        <v>6103997.474090002</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6596437.29269</v>
+        <v>6839324.193870001</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>8168226.859050001</v>
+        <v>8292139.411350001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>13701923.66287</v>
+        <v>13301801.08894</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>13169694.25061</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>12820352.84085</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>10720769.753</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>101041.75937</v>
+        <v>97190.43799999999</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>115246.40052</v>
+        <v>132706.77814</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>148980.31699</v>
+        <v>184243.41514</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>142348.32723</v>
+        <v>133927.09511</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>195051.3039000001</v>
+        <v>202167.72065</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>197358.89631</v>
+        <v>217153.19994</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>324577.07293</v>
+        <v>321705.66359</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>330571.89069</v>
+        <v>319595.42859</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>429195.64029</v>
+        <v>466081.18741</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>933536.0876800001</v>
+        <v>863153.9575999998</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>800908.6948599999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>776124.58956</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>785040.211</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>2417934.16254</v>
+        <v>2583237.279999999</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>3915573.63234</v>
+        <v>3928104.52174</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>4572306.95964</v>
+        <v>4654594.241090002</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>4405386.80229</v>
+        <v>4570057.174810001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>4567857.244659999</v>
+        <v>4923109.02161</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6143695.34391</v>
+        <v>6216537.09908</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>6694842.219839999</v>
+        <v>6692871.22284</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>6307970.21079</v>
+        <v>6609599.12392</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>10585677.2139</v>
+        <v>10849970.81134</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10172563.35749</v>
+        <v>9965061.484949999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>14083674.23631</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>14379152.86955</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>26290458.384</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>610505.07441</v>
+        <v>600088.8914</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>744728.4283100001</v>
+        <v>698456.3044299998</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>896351.2069499999</v>
+        <v>1154000.7084</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1022511.42126</v>
+        <v>961125.8651700001</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1184157.42147</v>
+        <v>1253826.80006</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1595926.6175</v>
+        <v>1433692.37994</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>2040646.73761</v>
+        <v>1823277.13308</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2135465.39028</v>
+        <v>2338999.69505</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>2470515.258550001</v>
+        <v>2319406.75656</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2818991.05647</v>
+        <v>2697677.32149</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>3302856.92751</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>3052984.02874</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>3520593.758</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>18970.57633</v>
+        <v>21595.73239</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>15838.81809</v>
+        <v>24315.00033</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>50591.88010999999</v>
+        <v>47416.01554</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>25807.35938</v>
+        <v>22894.0658</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>29068.03456</v>
+        <v>26785.85675</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>47640.149</v>
+        <v>58486.26147</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>36024.14034</v>
+        <v>35183.59975000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>81538.18020999999</v>
+        <v>81867.53500999998</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>38034.80658999999</v>
+        <v>37605.73606</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>58169.40698</v>
+        <v>52783.28416</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>45553.7668</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>44324.57520000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>57436.463</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>591534.49808</v>
+        <v>578493.1590099999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>728889.6102199999</v>
+        <v>674141.3041000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>845759.32684</v>
+        <v>1106584.69286</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>996704.0618800002</v>
+        <v>938231.79937</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1155089.38691</v>
+        <v>1227040.94331</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1548286.4685</v>
+        <v>1375206.11847</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>2004622.59727</v>
+        <v>1788093.53333</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2053927.21007</v>
+        <v>2257132.16004</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>2432480.45196</v>
+        <v>2281801.0205</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2760821.649490001</v>
+        <v>2644894.03733</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>3257303.16071</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>3008659.45354</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>3463157.295</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>528011.79527</v>
+        <v>426172.8087599999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>560797.41098</v>
+        <v>454199.6678100001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>3207023.8933</v>
+        <v>3061268.87937</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>743909.1841800003</v>
+        <v>663567.7328199999</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>858029.0483900001</v>
+        <v>830180.0965900002</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1714463.98738</v>
+        <v>1822932.53861</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1082052.43748</v>
+        <v>1063054.64052</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>3183465.9649</v>
+        <v>3115493.60454</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>1460959.69529</v>
+        <v>1450130.5784</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3689001.70005</v>
+        <v>3131686.85147</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2364046.97084</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2268566.63522</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>2145820.541</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>19417.9148</v>
+        <v>18633.16502</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>16489.69573</v>
+        <v>16155.43404</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>16173.83708</v>
+        <v>10961.72027</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>18732.09036</v>
+        <v>20287.12398</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>21310.21482</v>
+        <v>26584.21728</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>29857.52635</v>
+        <v>31087.92258</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>33182.43038</v>
+        <v>39275.88638</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>31323.97487</v>
+        <v>39816.28478</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>26578.08579999999</v>
+        <v>24737.9994</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>54294.58562000001</v>
+        <v>43552.86022</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>43034.8499</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>46619.21561</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>43837.833</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>39375.63191</v>
+        <v>31485.48616</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>32093.20609</v>
+        <v>26402.93518</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>50367.0293</v>
+        <v>78647.97536000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>35018.38438999999</v>
+        <v>51113.63049999998</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>57353.07467999999</v>
+        <v>87834.99583</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>38407.29012</v>
+        <v>33441.50330999999</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>46444.10302999999</v>
+        <v>55128.57785</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>81111.63406000001</v>
+        <v>86079.76568999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>69478.81176</v>
+        <v>47553.12953999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>131506.32768</v>
+        <v>136411.65477</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>137435.95906</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>128697.12421</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>116619.344</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>469218.24856</v>
+        <v>376054.1575800001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>512214.50916</v>
+        <v>411641.29859</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>3140483.02692</v>
+        <v>2971659.183739999</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>690158.7094299999</v>
+        <v>592166.9783399999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>779365.7588899999</v>
+        <v>715760.8834800001</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1646199.17091</v>
+        <v>1758403.11272</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>1002425.90407</v>
+        <v>968650.1762900001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>3071030.355969999</v>
+        <v>2989597.55407</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1364902.79773</v>
+        <v>1377839.44946</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3503200.78675</v>
+        <v>2951722.33648</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2183576.16188</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2093250.2954</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>1985363.364</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>2500427.44168</v>
+        <v>2757153.36264</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4099504.64967</v>
+        <v>4172361.15836</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2261634.27329</v>
+        <v>2747326.07012</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>4683989.039369999</v>
+        <v>4867615.307159999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>4893985.61774</v>
+        <v>5346755.72508</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>6025157.97403</v>
+        <v>5827296.94041</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>7653436.519969999</v>
+        <v>7453093.715399999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5259969.63617</v>
+        <v>5833105.21443</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>11595232.77716</v>
+        <v>11719246.9895</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9302552.713909999</v>
+        <v>9531051.95497</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>15022484.19298</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>15163570.26307</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>27665231.601</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>638024.4856699998</v>
+        <v>639072.0152799999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>826036.44317</v>
+        <v>824497.1312599998</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1053200.26655</v>
+        <v>1047235.71957</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1072670.29459</v>
+        <v>1079180.92467</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1263786.73593</v>
+        <v>1258557.99298</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1480628.19501</v>
+        <v>1469295.45394</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1757453.64454</v>
+        <v>1762499.35628</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1803993.53365</v>
+        <v>1828116.08037</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2395875.2481</v>
+        <v>2359299.26283</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3180141.821709999</v>
+        <v>3103306.367349999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>3599133.67651</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>3569817.21109</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>5719771.848</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1862402.95601</v>
+        <v>2118081.34736</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3273468.2065</v>
+        <v>3347864.0271</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1208434.00674</v>
+        <v>1700090.35055</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>3611318.74478</v>
+        <v>3788434.382489999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>3630198.881809999</v>
+        <v>4088197.732100001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4544529.779019998</v>
+        <v>4358001.48647</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>5895982.87543</v>
+        <v>5690594.35912</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>3455976.102520001</v>
+        <v>4004989.13406</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>9199357.529060001</v>
+        <v>9359947.726669999</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6122410.8922</v>
+        <v>6427745.587619999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>11423350.51647</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>11593753.05198</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>21945459.753</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>9348</v>
+        <v>7468</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>11223</v>
+        <v>9225</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>13897</v>
+        <v>11520</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>16185</v>
+        <v>13343</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>12712</v>
+        <v>10514</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>14754</v>
+        <v>12183</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>17041</v>
+        <v>13778</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>19350</v>
+        <v>15277</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>22943</v>
+        <v>17947</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>9596</v>
+        <v>8078</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>10445</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>8623</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>10262</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>